--- a/document/数据库设计/危废运输管理系统数据库设计.xlsx
+++ b/document/数据库设计/危废运输管理系统数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="运输管理系统数据库说明" sheetId="1" r:id="rId1"/>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,6 +199,10 @@
   </si>
   <si>
     <t>表名：gps_GPS设备ID号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，自动递增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -652,27 +652,27 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -686,7 +686,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -739,7 +739,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -747,10 +747,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -859,7 +859,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -910,10 +910,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -925,7 +925,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -933,13 +933,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2">
         <v>255</v>
@@ -954,13 +954,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2">
         <v>255</v>
@@ -975,10 +975,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -990,7 +990,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -998,10 +998,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -1013,7 +1013,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/document/数据库设计/危废运输管理系统数据库设计.xlsx
+++ b/document/数据库设计/危废运输管理系统数据库设计.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="运输管理系统数据库说明" sheetId="1" r:id="rId1"/>
     <sheet name="GPS信息表" sheetId="3" r:id="rId2"/>
     <sheet name="车辆信息表（vehicle）" sheetId="4" r:id="rId3"/>
+    <sheet name="车辆路径表" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,11 +199,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表名：gps_GPS设备ID号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主键，自动递增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路线id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>route_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储车辆信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆路径表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：gps_GPS设备序列号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：route_GPS设备序列号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备id号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gps_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键 fk_gps_id device表中的device_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：表示路径任务执行中；1：表示路任务结束；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>route_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：表示申请；1：表示审核；2:表示退回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>route_detial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mediumtext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录车辆预设轨迹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -261,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -270,80 +363,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -360,7 +386,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -639,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B8"/>
+  <dimension ref="B2:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -657,7 +683,7 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
@@ -673,6 +699,26 @@
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +785,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -872,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -925,7 +971,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1020,4 +1066,159 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="29.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/数据库设计/危废运输管理系统数据库设计.xlsx
+++ b/document/数据库设计/危废运输管理系统数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="运输管理系统数据库说明" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +296,30 @@
   </si>
   <si>
     <t>记录车辆预设轨迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmap_longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmap_latitude</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,10 +753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -805,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -824,7 +848,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -843,7 +867,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -852,17 +876,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -871,17 +895,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -890,21 +914,59 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E10" s="2">
         <v>4</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1072,7 +1134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
